--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -187,6 +187,21 @@
   </si>
   <si>
     <t>U—Erythrocytter; arb.k.(proc.) = ?</t>
+  </si>
+  <si>
+    <t>NPU08676</t>
+  </si>
+  <si>
+    <t>Pt—Legeme; temp. = ? °C</t>
+  </si>
+  <si>
+    <t>NPU19748</t>
+  </si>
+  <si>
+    <t>C-reaktivt protein [CRP];P</t>
+  </si>
+  <si>
+    <t>P—C-reaktivt protein; massek. = ? mg/L</t>
   </si>
 </sst>
 </file>
@@ -505,7 +520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -623,6 +638,34 @@
         <v>57</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
+    <sheet name="Properties" r:id="rId4" sheetId="2"/>
+    <sheet name="Concepts" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -129,12 +130,24 @@
     <t>Count</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>phmr-unit</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
     <t>Display</t>
   </si>
   <si>
@@ -202,6 +215,24 @@
   </si>
   <si>
     <t>P—C-reaktivt protein; massek. = ? mg/L</t>
+  </si>
+  <si>
+    <t>DNK05472</t>
+  </si>
+  <si>
+    <t>Blodtryk systolisk;Arm</t>
+  </si>
+  <si>
+    <t>Arm—Blodtryk(systolisk); tryk = ? mmHg</t>
+  </si>
+  <si>
+    <t>DNK05473</t>
+  </si>
+  <si>
+    <t>Blodtryk diastolisk;Arm</t>
+  </si>
+  <si>
+    <t>Arm—Blodtryk(diastolisk); tryk = ? mmHg</t>
   </si>
 </sst>
 </file>
@@ -520,7 +551,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,136 +565,201 @@
         <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>40</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>42</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -142,6 +142,9 @@
     <t>phmr-unit</t>
   </si>
   <si>
+    <t>http://ehealth.sundhed.dk/cs/ehealth-property#phmr-unit</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -190,9 +193,6 @@
     <t>NPU03794</t>
   </si>
   <si>
-    <t>Legeme højde;Pt</t>
-  </si>
-  <si>
     <t>Pt—Legeme; højde = ? m</t>
   </si>
   <si>
@@ -209,9 +209,6 @@
   </si>
   <si>
     <t>NPU19748</t>
-  </si>
-  <si>
-    <t>C-reaktivt protein [CRP];P</t>
   </si>
   <si>
     <t>P—C-reaktivt protein; massek. = ? mg/L</t>
@@ -575,10 +572,12 @@
       <c r="A2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -596,97 +595,97 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>59</v>
@@ -694,7 +693,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>60</v>
@@ -708,7 +707,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>62</v>
@@ -722,7 +721,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>64</v>
@@ -731,35 +730,35 @@
         <v>65</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="D11" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="D12" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
+++ b/fhir/CodeSystem-1.2.208.176.2.1--20190829.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
